--- a/Design/komplettübersicht.xlsx
+++ b/Design/komplettübersicht.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Steampunk Game</t>
   </si>
@@ -66,36 +66,6 @@
     <t>späte Späheinheit</t>
   </si>
   <si>
-    <t>Luftschiff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoher Schaden, braucht </t>
-  </si>
-  <si>
-    <t>Aufklärung durch kleines</t>
-  </si>
-  <si>
-    <t>frühe Kampfeinheit</t>
-  </si>
-  <si>
-    <t>kann einige Gebäude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">außerhalb des Baubereichs </t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>kann mechanische Einheiten</t>
-  </si>
-  <si>
-    <t>reparieren und Fallen stellen</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Rohstoffe und sonstige Güter</t>
   </si>
   <si>
@@ -138,15 +108,6 @@
     <t>Kommadozentrale</t>
   </si>
   <si>
-    <t>Hauptgebäude, wird es zer-</t>
-  </si>
-  <si>
-    <t>stört, verliert man das Spiel</t>
-  </si>
-  <si>
-    <t>verschiedenes aussehen</t>
-  </si>
-  <si>
     <t>Sägemühle</t>
   </si>
   <si>
@@ -171,36 +132,12 @@
     <t>stellt Holz aus Bäumen her</t>
   </si>
   <si>
-    <t>produziert Stein, benötigt</t>
-  </si>
-  <si>
-    <t>Steinvorkommen</t>
-  </si>
-  <si>
-    <t>produziert Eisen- oder Kupfer-</t>
-  </si>
-  <si>
-    <t>Erz. Benötigt Eisen oder Kupfer-</t>
-  </si>
-  <si>
-    <t>Vorkommen</t>
-  </si>
-  <si>
     <t>stellt Eisen oder Kupfer her</t>
   </si>
   <si>
-    <t>benötigt eine Eisenbahnver-</t>
-  </si>
-  <si>
-    <t>bindung</t>
-  </si>
-  <si>
     <t>große Miene</t>
   </si>
   <si>
-    <t>siehe kleine Miene</t>
-  </si>
-  <si>
     <t>Rekrutierungsgebäude</t>
   </si>
   <si>
@@ -210,9 +147,6 @@
     <t>lässt dich allen nichtmech-</t>
   </si>
   <si>
-    <t>anischen Truppen rekrutieren</t>
-  </si>
-  <si>
     <t>* vorläufige Bezeichnungen</t>
   </si>
   <si>
@@ -235,13 +169,49 @@
   </si>
   <si>
     <t>Kommandogebäude</t>
+  </si>
+  <si>
+    <t>Ätheriumpumpe</t>
+  </si>
+  <si>
+    <t>Logistik</t>
+  </si>
+  <si>
+    <t>Damit Güter von weiter entfernten Gebieten transportiert werden können braucht man eine Zugverbindung zum Lager. Nahe des Lagers werden Waren mithilfe von Pferdekarren transportiert</t>
+  </si>
+  <si>
+    <t>frühe Kampfeinheit kann einige Gebäude außerhalb des Baubereichs bauen</t>
+  </si>
+  <si>
+    <t>Hauptgebäude, wird es zerstört, verliert man das Spiel verschiedenes aussehen</t>
+  </si>
+  <si>
+    <t>produziert Stein, benötigt Steinvorkommen</t>
+  </si>
+  <si>
+    <t>kann mechanische Einheiten reparieren und Fallen stellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoher Schaden, braucht Aufklärung durch kleines Luftschiff </t>
+  </si>
+  <si>
+    <t>produziert Eisen- oder Kupfererz. Benötigt Eisen oder Kupfevorkommen</t>
+  </si>
+  <si>
+    <t>siehe kleine Miene benötigt eine Eisenbahnverbindung</t>
+  </si>
+  <si>
+    <t>stellt Eisen oder Kupfer her benötigt eine Eisenbahnverbindung</t>
+  </si>
+  <si>
+    <t>pumpt unter hohem Druck Wasserdampf in das Gestein um Ätherium an die Oberfläche zu fördern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +251,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,12 +279,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -602,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X55"/>
+  <dimension ref="B2:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -630,7 +619,7 @@
     </row>
     <row r="3" spans="2:24">
       <c r="C3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:24">
@@ -652,19 +641,19 @@
         <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>4</v>
@@ -678,345 +667,458 @@
         <v>8</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="45">
+      <c r="C9" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="M9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>50</v>
+      <c r="M9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:24">
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="M10" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="W10" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="W10" s="4"/>
     </row>
     <row r="11" spans="2:24">
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="2:24">
-      <c r="C12" s="4" t="s">
-        <v>22</v>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="R11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="30">
+      <c r="C12" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="R12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="2:24">
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="R13" s="3" t="s">
+      <c r="H13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="R14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="45">
+      <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="W16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="R19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="2:24" ht="30">
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24">
-      <c r="C14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="R14" s="4" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="R22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="2:24" ht="45">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="R28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24">
-      <c r="H15" s="4"/>
-      <c r="R15" s="4" t="s">
+    </row>
+    <row r="29" spans="2:24" ht="60">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="1"/>
+      <c r="X32" s="1"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="2:24">
-      <c r="H16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="W16" s="4"/>
-    </row>
-    <row r="17" spans="3:23">
-      <c r="H17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="W17" s="4"/>
-    </row>
-    <row r="18" spans="3:23">
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="R18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23">
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="R19" s="4" t="s">
+    </row>
+    <row r="49" spans="2:2" ht="103.5" customHeight="1">
+      <c r="B49" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="3:23">
-      <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="R20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23">
-      <c r="H21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="R21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="3:23">
-      <c r="H22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="3:23">
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="R23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="3:23">
-      <c r="C24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="R24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="3:23">
-      <c r="H25" s="4"/>
-      <c r="R25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W25" s="4"/>
-    </row>
-    <row r="26" spans="3:23">
-      <c r="H26" s="4"/>
-      <c r="R26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" s="4"/>
-    </row>
-    <row r="27" spans="3:23">
-      <c r="H27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="W27" s="4"/>
-    </row>
-    <row r="28" spans="3:23">
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="R28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="3:23">
-      <c r="H29" s="4"/>
-      <c r="R29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="3:23">
-      <c r="H30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="3:23">
-      <c r="H31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="3:23">
-      <c r="H32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="2:24">
-      <c r="H33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="R33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="2:24">
-      <c r="H34" s="4"/>
-      <c r="R34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="2:24">
-      <c r="H35" s="4"/>
-      <c r="R35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="2:24">
-      <c r="H36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="2:24">
-      <c r="H37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="W37" s="4"/>
-    </row>
-    <row r="40" spans="2:24">
-      <c r="B40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24">
-      <c r="C42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="44" spans="2:24">
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24">
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="E51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5">
-      <c r="C53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="C55" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
